--- a/tests/data/Mathieu_2015_phi05_99_1atm.xlsx
+++ b/tests/data/Mathieu_2015_phi05_99_1atm.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6997B1-3656-C045-88E9-FB4C6B5C8956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6260B6D-9DCD-CD45-87DA-61581A4E4A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12560" yWindow="2360" windowWidth="16960" windowHeight="12320" xr2:uid="{E8268F29-D532-4F4A-8DC7-DD2C0037AE91}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
     <sheet name="1" sheetId="9" r:id="rId2"/>
+    <sheet name="2" sheetId="12" r:id="rId3"/>
+    <sheet name="3" sheetId="13" r:id="rId4"/>
+    <sheet name="4" sheetId="10" r:id="rId5"/>
+    <sheet name="5" sheetId="11" r:id="rId6"/>
+    <sheet name="6" sheetId="14" r:id="rId7"/>
+    <sheet name="7" sheetId="15" r:id="rId8"/>
+    <sheet name="8" sheetId="16" r:id="rId9"/>
+    <sheet name="9" sheetId="17" r:id="rId10"/>
+    <sheet name="10" sheetId="18" r:id="rId11"/>
+    <sheet name="11" sheetId="19" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="60">
   <si>
     <t>parameter</t>
   </si>
@@ -206,6 +216,15 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>plot_format</t>
+  </si>
+  <si>
+    <t>yunit</t>
+  </si>
+  <si>
+    <t>ms</t>
   </si>
 </sst>
 </file>
@@ -597,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E566FD-7BF3-F74E-98A5-DE111CAFB7E0}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -724,7 +743,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>32</v>
@@ -789,7 +808,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>28</v>
@@ -1022,9 +1041,15 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
+      <c r="A26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -1044,6 +1069,624 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93AB7614-B42A-1B43-B1E0-7AAEA245779F}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2312</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>0.6</v>
+      </c>
+      <c r="F3">
+        <v>0.6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.43</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>2500</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.998</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="6">
+        <v>170</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A376C8C-043C-6E47-971C-A84C8D66693A}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>2389</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>0.6</v>
+      </c>
+      <c r="F3">
+        <v>0.6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1.34</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>2500</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.998</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="6">
+        <v>129</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBA25C9-9796-B741-BA29-4640D8B1A93E}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>2479</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>0.6</v>
+      </c>
+      <c r="F3">
+        <v>0.6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1.29</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>2500</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.998</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="6">
+        <v>91</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1055,7 +1698,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1272,4 +1915,1446 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D78189-342A-924F-AB66-365EA8A2CF56}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>1969</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>0.6</v>
+      </c>
+      <c r="F3">
+        <v>0.6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1.57</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>2500</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.998</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="6">
+        <v>998</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DC59EE-0784-6D4E-A597-1B49382178A3}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2008</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>0.6</v>
+      </c>
+      <c r="F3">
+        <v>0.6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.53</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>2500</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.998</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="6">
+        <v>783</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095A17E7-64F8-1A44-95A7-E8E95D3D4CA2}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>0.6</v>
+      </c>
+      <c r="F3">
+        <v>0.6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1.46</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>2500</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.998</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="6">
+        <v>769</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705F3E93-47CC-4D46-8A7B-1F9D5D05AF4F}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>2077</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>0.6</v>
+      </c>
+      <c r="F3">
+        <v>0.6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1.48</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>2500</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.998</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="6">
+        <v>551</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651AFB03-305F-6A44-8DA5-46B598954330}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>2164</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>0.6</v>
+      </c>
+      <c r="F3">
+        <v>0.6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1.44</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>2500</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.998</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="6">
+        <v>380</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6282CF20-041B-9746-9888-8CE766525264}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>2175</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>0.6</v>
+      </c>
+      <c r="F3">
+        <v>0.6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1.46</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>2500</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.998</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="6">
+        <v>362</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B31CBA-8E2D-E64D-B757-87D11CBB5E4D}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>2266</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>0.6</v>
+      </c>
+      <c r="F3">
+        <v>0.6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1.46</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>2500</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.998</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="6">
+        <v>226</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/data/Mathieu_2015_phi05_99_1atm.xlsx
+++ b/tests/data/Mathieu_2015_phi05_99_1atm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6260B6D-9DCD-CD45-87DA-61581A4E4A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB6532E-50F2-3D49-82D0-D307FF3E3AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12560" yWindow="2360" windowWidth="16960" windowHeight="12320" xr2:uid="{E8268F29-D532-4F4A-8DC7-DD2C0037AE91}"/>
+    <workbookView xWindow="14260" yWindow="2200" windowWidth="16960" windowHeight="12320" xr2:uid="{E8268F29-D532-4F4A-8DC7-DD2C0037AE91}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="59">
   <si>
     <t>parameter</t>
   </si>
@@ -137,9 +137,6 @@
     <t>atm</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -167,12 +164,6 @@
     <t>idt_method</t>
   </si>
   <si>
-    <t>OH*</t>
-  </si>
-  <si>
-    <t>idt_target</t>
-  </si>
-  <si>
     <t>[OH]</t>
   </si>
   <si>
@@ -225,6 +216,12 @@
   </si>
   <si>
     <t>ms</t>
+  </si>
+  <si>
+    <t>idt_targ</t>
+  </si>
+  <si>
+    <t>OHV</t>
   </si>
 </sst>
 </file>
@@ -617,7 +614,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -629,7 +626,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -662,7 +659,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
@@ -679,10 +676,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -695,10 +692,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -708,13 +705,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -724,13 +721,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -746,7 +743,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -763,7 +760,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -840,10 +837,10 @@
         <v>24</v>
       </c>
       <c r="C14" s="9">
-        <v>3.0000000000000001E-3</v>
+        <v>10</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -853,10 +850,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -869,10 +866,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -882,10 +879,10 @@
     </row>
     <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="8"/>
@@ -897,13 +894,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C18" s="10">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -913,13 +910,13 @@
         <v>20</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C19" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -935,7 +932,7 @@
         <v>0.99</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -945,10 +942,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>56</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -965,10 +962,10 @@
         <v>13</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D22" s="4">
         <v>3</v>
@@ -1005,10 +1002,10 @@
         <v>13</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D24" s="8">
         <v>2</v>
@@ -1022,33 +1019,33 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
         <v>43</v>
       </c>
-      <c r="B25" t="s">
+      <c r="E25" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="F25" t="s">
         <v>45</v>
-      </c>
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1087,7 +1084,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1180,7 +1177,7 @@
         <v>2500</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -1189,13 +1186,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1212,13 +1209,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1241,7 +1238,7 @@
         <v>0.998</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1258,13 +1255,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="6">
         <v>170</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -1293,7 +1290,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1386,7 +1383,7 @@
         <v>2500</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -1395,13 +1392,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1418,13 +1415,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1447,7 +1444,7 @@
         <v>0.998</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1464,13 +1461,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="6">
         <v>129</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -1499,7 +1496,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1592,7 +1589,7 @@
         <v>2500</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -1601,13 +1598,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1624,13 +1621,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1653,7 +1650,7 @@
         <v>0.998</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1670,13 +1667,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="6">
         <v>91</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -1708,7 +1705,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1801,7 +1798,7 @@
         <v>2500</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -1810,13 +1807,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1833,13 +1830,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1862,7 +1859,7 @@
         <v>0.998</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1879,13 +1876,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="6">
         <v>1113</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -1929,7 +1926,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2022,7 +2019,7 @@
         <v>2500</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -2031,13 +2028,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2054,13 +2051,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2083,7 +2080,7 @@
         <v>0.998</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2100,13 +2097,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="6">
         <v>998</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -2135,7 +2132,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2228,7 +2225,7 @@
         <v>2500</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -2237,13 +2234,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2260,13 +2257,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2289,7 +2286,7 @@
         <v>0.998</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2306,13 +2303,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="6">
         <v>783</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -2341,7 +2338,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2434,7 +2431,7 @@
         <v>2500</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -2443,13 +2440,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2466,13 +2463,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2495,7 +2492,7 @@
         <v>0.998</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2512,13 +2509,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="6">
         <v>769</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -2547,7 +2544,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2640,7 +2637,7 @@
         <v>2500</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -2649,13 +2646,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2672,13 +2669,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2701,7 +2698,7 @@
         <v>0.998</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2718,13 +2715,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="6">
         <v>551</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -2753,7 +2750,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2846,7 +2843,7 @@
         <v>2500</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -2855,13 +2852,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2878,13 +2875,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2907,7 +2904,7 @@
         <v>0.998</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2924,13 +2921,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="6">
         <v>380</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -2959,7 +2956,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3052,7 +3049,7 @@
         <v>2500</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -3061,13 +3058,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -3084,13 +3081,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3113,7 +3110,7 @@
         <v>0.998</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3130,13 +3127,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="6">
         <v>362</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -3165,7 +3162,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3258,7 +3255,7 @@
         <v>2500</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -3267,13 +3264,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -3290,13 +3287,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3319,7 +3316,7 @@
         <v>0.998</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3336,13 +3333,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="6">
         <v>226</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>10</v>
